--- a/FUNDS HARYANA.xlsx
+++ b/FUNDS HARYANA.xlsx
@@ -606,7 +606,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
